--- a/OnBoard/output/trust/bio/Bio_Trust_50.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_50.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q192"/>
+  <dimension ref="A1:Q213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F2">
@@ -477,19 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L2">
@@ -499,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F3">
@@ -529,19 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L3">
@@ -551,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F4">
@@ -581,19 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L4">
@@ -603,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F5">
@@ -633,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -645,7 +630,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L5">
@@ -655,7 +640,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -670,12 +655,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F6">
@@ -685,14 +670,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L6">
@@ -702,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -717,12 +707,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F7">
@@ -732,19 +722,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L7">
@@ -754,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -769,12 +754,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F8">
@@ -784,14 +769,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L8">
@@ -801,7 +786,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -816,12 +801,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F9">
@@ -831,14 +816,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L9">
@@ -848,7 +838,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -863,12 +853,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F10">
@@ -878,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -890,7 +880,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L10">
@@ -900,7 +890,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -915,12 +905,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F11">
@@ -930,19 +920,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L11">
@@ -952,7 +937,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -967,12 +952,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F12">
@@ -982,10 +967,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -994,7 +979,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L12">
@@ -1004,7 +989,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1019,12 +1004,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F13">
@@ -1034,11 +1019,11 @@
         <v>1</v>
       </c>
       <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
         <v>22</v>
       </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>F</t>
@@ -1046,7 +1031,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L13">
@@ -1056,7 +1041,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1071,12 +1056,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F14">
@@ -1086,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1098,7 +1083,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L14">
@@ -1108,7 +1093,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1123,12 +1108,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F15">
@@ -1138,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1150,7 +1135,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L15">
@@ -1160,7 +1145,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1175,12 +1160,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F16">
@@ -1190,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1202,7 +1187,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L16">
@@ -1212,7 +1197,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1227,12 +1212,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F17">
@@ -1242,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1254,7 +1239,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L17">
@@ -1264,7 +1249,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1279,12 +1264,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F18">
@@ -1294,14 +1279,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L18">
@@ -1311,7 +1301,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1326,12 +1316,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F19">
@@ -1341,14 +1331,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L19">
@@ -1358,7 +1353,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1373,12 +1368,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F20">
@@ -1388,14 +1383,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L20">
@@ -1405,7 +1405,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F21">
@@ -1438,11 +1438,11 @@
         <v>31</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L21">
@@ -1452,7 +1452,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1467,12 +1467,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F22">
@@ -1482,14 +1482,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L22">
@@ -1499,7 +1504,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1514,12 +1519,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F23">
@@ -1529,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="I23">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1541,17 +1546,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L23">
         <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1571,7 +1581,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F24">
@@ -1581,19 +1591,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="I24">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L24">
@@ -1603,7 +1608,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1623,7 +1628,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F25">
@@ -1633,19 +1638,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="I25">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L25">
@@ -1655,7 +1655,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F26">
@@ -1685,19 +1685,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I26">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L26">
@@ -1707,7 +1702,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1727,7 +1722,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F27">
@@ -1737,11 +1732,11 @@
         <v>1</v>
       </c>
       <c r="H27">
+        <v>36</v>
+      </c>
+      <c r="I27">
         <v>23</v>
       </c>
-      <c r="I27">
-        <v>22</v>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>F</t>
@@ -1749,7 +1744,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L27">
@@ -1759,7 +1754,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1779,7 +1774,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F28">
@@ -1789,14 +1784,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I28">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L28">
@@ -1806,7 +1806,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F29">
@@ -1836,14 +1836,19 @@
         <v>1</v>
       </c>
       <c r="H29">
+        <v>37</v>
+      </c>
+      <c r="I29">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>31</v>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L29">
@@ -1853,7 +1858,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1873,7 +1878,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F30">
@@ -1883,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1900,7 +1905,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1920,7 +1925,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F31">
@@ -1930,14 +1935,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L31">
@@ -1947,7 +1957,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1967,7 +1977,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F32">
@@ -1977,14 +1987,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L32">
@@ -1994,7 +2009,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2014,7 +2029,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F33">
@@ -2024,14 +2039,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L33">
@@ -2041,7 +2056,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2061,7 +2076,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F34">
@@ -2071,14 +2086,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L34">
@@ -2088,7 +2108,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2108,7 +2128,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F35">
@@ -2118,14 +2138,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L35">
@@ -2135,7 +2160,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2155,7 +2180,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F36">
@@ -2165,14 +2190,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L36">
@@ -2182,7 +2212,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2202,7 +2232,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F37">
@@ -2212,14 +2242,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L37">
@@ -2229,7 +2264,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2249,7 +2284,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F38">
@@ -2259,14 +2294,14 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L38">
@@ -2276,7 +2311,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2296,7 +2331,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F39">
@@ -2306,14 +2341,14 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L39">
@@ -2323,7 +2358,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2343,7 +2378,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F40">
@@ -2353,14 +2388,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L40">
@@ -2370,7 +2410,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2390,7 +2430,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F41">
@@ -2400,14 +2440,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L41">
@@ -2417,7 +2457,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2437,7 +2477,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F42">
@@ -2447,14 +2487,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L42">
@@ -2464,7 +2504,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2484,7 +2524,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F43">
@@ -2494,14 +2534,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="I43">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L43">
@@ -2511,7 +2556,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2531,7 +2576,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F44">
@@ -2541,14 +2586,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L44">
@@ -2558,7 +2608,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2578,7 +2628,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F45">
@@ -2588,14 +2638,14 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I45">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L45">
@@ -2605,7 +2655,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2625,7 +2675,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F46">
@@ -2635,14 +2685,19 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L46">
@@ -2652,7 +2707,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2682,19 +2737,14 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I47">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L47">
@@ -2704,7 +2754,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2734,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I48">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2756,7 +2806,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2803,7 +2853,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2833,19 +2883,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I50">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L50">
@@ -2855,7 +2900,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2885,11 +2930,11 @@
         <v>1</v>
       </c>
       <c r="H51">
+        <v>40</v>
+      </c>
+      <c r="I51">
         <v>36</v>
       </c>
-      <c r="I51">
-        <v>28</v>
-      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>F</t>
@@ -2897,7 +2942,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L51">
@@ -2907,7 +2952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2937,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2959,7 +3004,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2989,10 +3034,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3001,7 +3046,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L53">
@@ -3011,7 +3056,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3041,14 +3086,19 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I54">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L54">
@@ -3058,7 +3108,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3088,14 +3138,19 @@
         <v>1</v>
       </c>
       <c r="H55">
+        <v>38</v>
+      </c>
+      <c r="I55">
         <v>29</v>
       </c>
-      <c r="I55">
-        <v>14</v>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L55">
@@ -3105,7 +3160,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3135,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I56">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3157,7 +3212,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3187,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3209,7 +3264,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3239,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I58">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3261,7 +3316,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3291,14 +3346,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I59">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L59">
@@ -3308,7 +3368,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3341,11 +3401,16 @@
         <v>36</v>
       </c>
       <c r="I60">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L60">
@@ -3355,7 +3420,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3385,19 +3450,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I61">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L61">
@@ -3407,7 +3467,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3437,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I62">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3459,7 +3519,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3489,14 +3549,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L63">
@@ -3506,7 +3571,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3536,14 +3601,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I64">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L64">
@@ -3553,7 +3623,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3583,14 +3653,19 @@
         <v>1</v>
       </c>
       <c r="H65">
+        <v>34</v>
+      </c>
+      <c r="I65">
         <v>26</v>
       </c>
-      <c r="I65">
-        <v>11</v>
-      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L65">
@@ -3600,7 +3675,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3630,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I66">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3652,7 +3727,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3682,14 +3757,19 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I67">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L67">
@@ -3699,7 +3779,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3732,11 +3812,16 @@
         <v>31</v>
       </c>
       <c r="I68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L68">
@@ -3746,7 +3831,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3776,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I69">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3798,7 +3883,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3828,10 +3913,10 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I70">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3850,7 +3935,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3880,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3902,7 +3987,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3932,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3949,7 +4034,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3986,12 +4071,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L73">
@@ -4001,7 +4081,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4031,19 +4111,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I74">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L74">
@@ -4053,7 +4128,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4083,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4100,7 +4175,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4147,7 +4222,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4177,19 +4252,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I77">
         <v>18</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L77">
@@ -4199,7 +4269,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4229,19 +4299,14 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I78">
         <v>20</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L78">
@@ -4251,7 +4316,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4281,19 +4346,14 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I79">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L79">
@@ -4303,7 +4363,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4333,19 +4393,14 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I80">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L80">
@@ -4355,7 +4410,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4385,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I81">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4402,7 +4457,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4432,10 +4487,10 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4449,7 +4504,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4479,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4496,7 +4551,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4526,19 +4581,14 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I84">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L84">
@@ -4548,7 +4598,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4578,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I85">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4595,7 +4645,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4625,19 +4675,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I86">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L86">
@@ -4647,7 +4692,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4677,19 +4722,14 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L87">
@@ -4699,7 +4739,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4732,16 +4772,11 @@
         <v>29</v>
       </c>
       <c r="I88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L88">
@@ -4751,7 +4786,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4781,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I89">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4798,7 +4833,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4828,19 +4863,14 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L90">
@@ -4850,7 +4880,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4870,7 +4900,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F91">
@@ -4880,10 +4910,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I91">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4897,7 +4927,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4912,12 +4942,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F92">
@@ -4927,14 +4957,19 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I92">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L92">
@@ -4944,7 +4979,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4959,12 +4994,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F93">
@@ -4974,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I93">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4986,7 +5021,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L93">
@@ -4996,7 +5031,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5011,12 +5046,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F94">
@@ -5026,19 +5061,14 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I94">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L94">
@@ -5048,7 +5078,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5063,12 +5093,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F95">
@@ -5078,19 +5108,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="I95">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L95">
@@ -5100,7 +5125,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5115,12 +5140,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F96">
@@ -5130,14 +5155,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="I96">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L96">
@@ -5147,7 +5172,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5162,12 +5187,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F97">
@@ -5177,14 +5202,14 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I97">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L97">
@@ -5194,7 +5219,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5209,12 +5234,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F98">
@@ -5224,14 +5249,14 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I98">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L98">
@@ -5241,7 +5266,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5256,12 +5281,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F99">
@@ -5271,19 +5296,14 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I99">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L99">
@@ -5293,7 +5313,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5308,12 +5328,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F100">
@@ -5323,19 +5343,14 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I100">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L100">
@@ -5345,7 +5360,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5360,12 +5375,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F101">
@@ -5375,19 +5390,14 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="I101">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L101">
@@ -5397,7 +5407,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5412,12 +5422,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F102">
@@ -5427,14 +5437,14 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="I102">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L102">
@@ -5444,7 +5454,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5459,12 +5469,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F103">
@@ -5474,19 +5484,14 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I103">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L103">
@@ -5496,7 +5501,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5511,12 +5516,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F104">
@@ -5526,14 +5531,14 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="I104">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L104">
@@ -5543,7 +5548,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5558,12 +5563,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F105">
@@ -5573,14 +5578,14 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I105">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L105">
@@ -5590,7 +5595,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5605,12 +5610,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F106">
@@ -5620,14 +5625,14 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I106">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L106">
@@ -5637,7 +5642,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5652,12 +5657,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F107">
@@ -5667,14 +5672,14 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I107">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L107">
@@ -5684,7 +5689,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5699,12 +5704,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F108">
@@ -5714,19 +5719,14 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I108">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L108">
@@ -5736,7 +5736,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F109">
@@ -5766,19 +5766,14 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I109">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L109">
@@ -5788,7 +5783,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5803,12 +5798,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F110">
@@ -5818,19 +5813,19 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="I110">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L110">
@@ -5840,7 +5835,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5855,12 +5850,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F111">
@@ -5870,14 +5865,19 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="I111">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L111">
@@ -5887,7 +5887,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5902,12 +5902,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F112">
@@ -5917,10 +5917,10 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="I112">
-        <v>30</v>
+        <v>376</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L112">
@@ -5939,7 +5939,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5969,10 +5969,10 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I113">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6016,14 +6016,19 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I114">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L114">
@@ -6033,7 +6038,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6063,14 +6068,19 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I115">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L115">
@@ -6080,7 +6090,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6110,10 +6120,10 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I116">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -6132,7 +6142,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6162,14 +6172,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I117">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L117">
@@ -6179,7 +6194,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6209,14 +6224,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I118">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L118">
@@ -6226,7 +6246,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6256,14 +6276,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I119">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L119">
@@ -6273,7 +6298,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6303,14 +6328,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I120">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L120">
@@ -6320,7 +6350,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6350,14 +6380,19 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I121">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L121">
@@ -6367,7 +6402,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6397,14 +6432,19 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I122">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L122">
@@ -6414,7 +6454,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6444,10 +6484,10 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I123">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -6466,7 +6506,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6496,10 +6536,10 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I124">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -6518,7 +6558,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6548,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I125">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -6570,7 +6610,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6600,10 +6640,10 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I126">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6622,7 +6662,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6652,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="H127">
+        <v>36</v>
+      </c>
+      <c r="I127">
         <v>29</v>
-      </c>
-      <c r="I127">
-        <v>15</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6674,7 +6714,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6704,10 +6744,10 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I128">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6726,7 +6766,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6756,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I129">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6778,7 +6818,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6808,10 +6848,10 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I130">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6830,7 +6870,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6860,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I131">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6877,17 +6917,12 @@
       </c>
       <c r="L131">
         <v>0</v>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6917,10 +6952,10 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I132">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6939,7 +6974,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6969,14 +7004,19 @@
         <v>1</v>
       </c>
       <c r="H133">
+        <v>37</v>
+      </c>
+      <c r="I133">
         <v>26</v>
       </c>
-      <c r="I133">
-        <v>12</v>
-      </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L133">
@@ -6986,7 +7026,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7016,14 +7056,19 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I134">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L134">
@@ -7033,7 +7078,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7066,11 +7111,11 @@
         <v>32</v>
       </c>
       <c r="I135">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L135">
@@ -7080,7 +7125,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7110,10 +7155,10 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I136">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -7132,7 +7177,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7162,10 +7207,10 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I137">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -7184,7 +7229,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7214,10 +7259,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I138">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -7236,7 +7281,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7266,14 +7311,19 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I139">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L139">
@@ -7283,7 +7333,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7313,14 +7363,19 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I140">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L140">
@@ -7330,7 +7385,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7360,14 +7415,19 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I141">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L141">
@@ -7377,7 +7437,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7407,10 +7467,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I142">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -7429,7 +7489,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7459,14 +7519,19 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I143">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L143">
@@ -7476,7 +7541,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7506,14 +7571,19 @@
         <v>1</v>
       </c>
       <c r="H144">
+        <v>36</v>
+      </c>
+      <c r="I144">
         <v>30</v>
       </c>
-      <c r="I144">
-        <v>16</v>
-      </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L144">
@@ -7523,7 +7593,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7553,14 +7623,19 @@
         <v>1</v>
       </c>
       <c r="H145">
+        <v>38</v>
+      </c>
+      <c r="I145">
         <v>29</v>
       </c>
-      <c r="I145">
-        <v>13</v>
-      </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L145">
@@ -7570,7 +7645,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7600,10 +7675,10 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I146">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -7612,7 +7687,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L146">
@@ -7622,7 +7697,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7652,10 +7727,10 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I147">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -7664,7 +7739,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L147">
@@ -7674,7 +7749,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7704,14 +7779,19 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I148">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L148">
@@ -7721,7 +7801,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7751,14 +7831,19 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I149">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L149">
@@ -7768,7 +7853,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7798,14 +7883,19 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I150">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L150">
@@ -7815,7 +7905,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7845,14 +7935,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I151">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L151">
@@ -7862,7 +7957,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7892,10 +7987,10 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I152">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7904,7 +7999,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L152">
@@ -7914,7 +8009,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7944,14 +8039,19 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I153">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L153">
@@ -7961,7 +8061,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7991,14 +8091,19 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I154">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L154">
@@ -8008,7 +8113,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8038,14 +8143,19 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I155">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L155">
@@ -8055,7 +8165,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8085,10 +8195,10 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -8102,7 +8212,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8132,10 +8242,10 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I157">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -8149,7 +8259,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8179,10 +8289,10 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I158">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -8196,7 +8306,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8226,10 +8336,10 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I159">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -8243,7 +8353,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8273,10 +8383,10 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I160">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -8290,7 +8400,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8320,10 +8430,10 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I161">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -8337,7 +8447,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8367,19 +8477,14 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I162">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L162">
@@ -8389,7 +8494,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8419,19 +8524,14 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I163">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L163">
@@ -8441,7 +8541,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8471,19 +8571,14 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I164">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L164">
@@ -8493,7 +8588,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8526,7 +8621,7 @@
         <v>29</v>
       </c>
       <c r="I165">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8540,7 +8635,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8573,7 +8668,7 @@
         <v>29</v>
       </c>
       <c r="I166">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -8587,7 +8682,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8617,10 +8712,10 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I167">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -8634,7 +8729,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8664,10 +8759,10 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I168">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -8681,7 +8776,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8714,16 +8809,11 @@
         <v>30</v>
       </c>
       <c r="I169">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L169">
@@ -8733,7 +8823,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8763,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I170">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -8775,17 +8865,12 @@
       </c>
       <c r="L170">
         <v>0</v>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8815,19 +8900,14 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I171">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L171">
@@ -8837,7 +8917,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8857,7 +8937,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F172">
@@ -8867,34 +8947,24 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="I172">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L172">
         <v>0</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>SS7978</t>
-        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8914,7 +8984,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F173">
@@ -8924,34 +8994,24 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="I173">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L173">
         <v>0</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>SS7979</t>
-        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8966,12 +9026,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F174">
@@ -8981,34 +9041,24 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="I174">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
       <c r="L174">
         <v>0</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>SS7980</t>
-        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9023,12 +9073,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F175">
@@ -9038,34 +9088,24 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="I175">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
       <c r="L175">
         <v>0</v>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>SS7981</t>
-        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9080,12 +9120,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F176">
@@ -9095,34 +9135,24 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="I176">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L176">
         <v>0</v>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>SS7982</t>
-        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9137,12 +9167,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F177">
@@ -9152,34 +9182,24 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="I177">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L177">
         <v>0</v>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>SA003</t>
-        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9194,12 +9214,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F178">
@@ -9209,14 +9229,14 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I178">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L178">
@@ -9226,7 +9246,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9241,12 +9261,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F179">
@@ -9256,14 +9276,14 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I179">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L179">
@@ -9273,7 +9293,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9288,12 +9308,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F180">
@@ -9303,14 +9323,14 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I180">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L180">
@@ -9320,7 +9340,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9335,12 +9355,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F181">
@@ -9350,14 +9370,14 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I181">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L181">
@@ -9367,7 +9387,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9382,12 +9402,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F182">
@@ -9397,14 +9417,14 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I182">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L182">
@@ -9414,7 +9434,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9429,12 +9449,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F183">
@@ -9444,14 +9464,14 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I183">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L183">
@@ -9461,7 +9481,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9476,12 +9496,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F184">
@@ -9491,14 +9511,14 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I184">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L184">
@@ -9508,7 +9528,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9523,12 +9543,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F185">
@@ -9538,10 +9558,10 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I185">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -9555,7 +9575,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9570,12 +9590,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F186">
@@ -9585,10 +9605,10 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I186">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -9602,7 +9622,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9617,12 +9637,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F187">
@@ -9632,14 +9652,14 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I187">
         <v>-1</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L187">
@@ -9649,7 +9669,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9664,12 +9684,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F188">
@@ -9679,14 +9699,14 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I188">
         <v>-1</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L188">
@@ -9696,7 +9716,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9711,12 +9731,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F189">
@@ -9726,14 +9746,14 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I189">
         <v>-1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L189">
@@ -9743,7 +9763,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9758,12 +9778,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F190">
@@ -9773,14 +9793,14 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I190">
         <v>-1</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L190">
@@ -9790,7 +9810,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9805,12 +9825,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F191">
@@ -9820,14 +9840,14 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I191">
         <v>-1</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L191">
@@ -9837,7 +9857,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9852,12 +9872,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F192">
@@ -9867,17 +9887,1064 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I192">
         <v>-1</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>94</v>
+      </c>
+      <c r="I193">
+        <v>-1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>126</v>
+      </c>
+      <c r="I194">
+        <v>-1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>131</v>
+      </c>
+      <c r="I195">
+        <v>-1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>117</v>
+      </c>
+      <c r="I196">
+        <v>-1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>TRIGLUC</t>
+        </is>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>124</v>
+      </c>
+      <c r="I197">
+        <v>-1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>124</v>
+      </c>
+      <c r="I198">
+        <v>-1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>61</v>
+      </c>
+      <c r="I199">
+        <v>-1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>101</v>
+      </c>
+      <c r="I200">
+        <v>139</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>100</v>
+      </c>
+      <c r="I201">
+        <v>143</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L192">
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
+        </is>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>-1</v>
+      </c>
+      <c r="I202">
+        <v>-1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>NA w inferred l inferred</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>294</v>
+      </c>
+      <c r="I203">
+        <v>210</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>SS8095</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>103</v>
+      </c>
+      <c r="I204">
+        <v>-1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>10</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>GOBISUE</t>
+        </is>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>47</v>
+      </c>
+      <c r="I206">
+        <v>-1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>29</v>
+      </c>
+      <c r="I207">
+        <v>16</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>27</v>
+      </c>
+      <c r="I208">
+        <v>13</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>25</v>
+      </c>
+      <c r="I209">
+        <v>10</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>31</v>
+      </c>
+      <c r="I210">
+        <v>17</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>20</v>
+      </c>
+      <c r="I211">
+        <v>8</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>26</v>
+      </c>
+      <c r="I212">
+        <v>11</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>23</v>
+      </c>
+      <c r="I213">
+        <v>9</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L213">
         <v>0</v>
       </c>
     </row>

--- a/OnBoard/output/trust/bio/Bio_Trust_50.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_50.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q213"/>
+  <dimension ref="A1:Q212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10352,12 +10352,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F202">
@@ -10367,22 +10367,27 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="I202">
-        <v>-1</v>
+        <v>210</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L202">
         <v>0</v>
       </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>NA w inferred l inferred</t>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>SS8095</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10414,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F203">
@@ -10419,28 +10424,18 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="I203">
-        <v>210</v>
+        <v>-1</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L203">
         <v>0</v>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>SS8095</t>
-        </is>
       </c>
     </row>
     <row r="204">
@@ -10466,7 +10461,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F204">
@@ -10476,14 +10471,19 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="I204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L204">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F205">
@@ -10523,19 +10523,14 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L205">
@@ -10565,7 +10560,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F206">
@@ -10575,14 +10570,19 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I206">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L206">
@@ -10622,10 +10622,10 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I207">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -10674,10 +10674,10 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I208">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I209">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -10778,10 +10778,10 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I210">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -10830,10 +10830,10 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I211">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -10882,69 +10882,17 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I212">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213">
-        <v>23</v>
-      </c>
-      <c r="I213">
-        <v>9</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L213">
         <v>0</v>
       </c>
     </row>
